--- a/data/words/v1/动词词库.xlsx
+++ b/data/words/v1/动词词库.xlsx
@@ -21,58 +21,58 @@
     <t>动词</t>
   </si>
   <si>
-    <t>及物+动词-心理活动</t>
-  </si>
-  <si>
-    <t>及物+动词-趋向</t>
-  </si>
-  <si>
-    <t>及物+动词-开始</t>
-  </si>
-  <si>
-    <t>及物+动词-结束</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-手臂-中性</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-手臂-亲切</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-手臂-消极</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-手臂-清扫</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-眼部-中性</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-眼部-贬义</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-耳部</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-嘴部</t>
-  </si>
-  <si>
-    <t>及物+名词-动作-身体</t>
-  </si>
-  <si>
-    <t>及物+名词-心情</t>
-  </si>
-  <si>
-    <t>及物+名词-存在</t>
-  </si>
-  <si>
-    <t>及物+名词-判断</t>
-  </si>
-  <si>
-    <t>及物+名词-意愿</t>
-  </si>
-  <si>
-    <t>及物+名词-趋向</t>
+    <t>及物_动词-心理活动</t>
+  </si>
+  <si>
+    <t>及物_动词-趋向</t>
+  </si>
+  <si>
+    <t>及物_动词-开始</t>
+  </si>
+  <si>
+    <t>及物_动词-结束</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-手臂-中性</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-手臂-亲切</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-手臂-消极</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-手臂-清扫</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-眼部-中性</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-眼部-贬义</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-耳部</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-嘴部</t>
+  </si>
+  <si>
+    <t>及物_名词-动作-身体</t>
+  </si>
+  <si>
+    <t>及物_名词-心情</t>
+  </si>
+  <si>
+    <t>及物_名词-存在</t>
+  </si>
+  <si>
+    <t>及物_名词-判断</t>
+  </si>
+  <si>
+    <t>及物_名词-意愿</t>
+  </si>
+  <si>
+    <t>及物_名词-趋向</t>
   </si>
   <si>
     <t>不及物-存在变化-生命</t>
@@ -707,12 +707,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,7 +735,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,22 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,59 +816,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,38 +845,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,13 +891,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +951,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,25 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,25 +1005,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,73 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,6 +1090,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,36 +1160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,17 +1183,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,148 +1196,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1722,7 +1709,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/data/words/v1/动词词库.xlsx
+++ b/data/words/v1/动词词库.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2D21B-3456-054F-85BE-056A43D03161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -705,14 +709,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,151 +730,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,192 +745,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1093,251 +773,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,61 +793,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1696,28 +1090,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="32" width="20.6181818181818" customWidth="1"/>
+    <col min="2" max="32" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:31">
+    <row r="1" spans="1:31" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:31">
+    <row r="2" spans="1:31" ht="15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1849,7 +1242,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" ht="15" spans="1:31">
+    <row r="3" spans="1:31" ht="15">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1279,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" ht="15" spans="1:31">
+    <row r="4" spans="1:31" ht="15">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1923,7 +1316,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" ht="15" spans="1:31">
+    <row r="5" spans="1:31" ht="15">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -1960,7 +1353,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" ht="15" spans="1:31">
+    <row r="6" spans="1:31" ht="15">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +1390,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" ht="15" spans="1:31">
+    <row r="7" spans="1:31" ht="15">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +1427,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" ht="15" spans="1:31">
+    <row r="8" spans="1:31" ht="15">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +1464,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" ht="15" spans="1:31">
+    <row r="9" spans="1:31" ht="15">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -2108,7 +1501,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" ht="15" spans="1:31">
+    <row r="10" spans="1:31" ht="15">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +1538,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" ht="15" spans="1:31">
+    <row r="11" spans="1:31" ht="15">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2182,7 +1575,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" ht="15" spans="1:31">
+    <row r="12" spans="1:31" ht="15">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2219,7 +1612,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" ht="15" spans="1:31">
+    <row r="13" spans="1:31" ht="15">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2256,7 +1649,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" ht="15" spans="1:31">
+    <row r="14" spans="1:31" ht="15">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2293,7 +1686,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" ht="15" spans="1:31">
+    <row r="15" spans="1:31" ht="15">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2330,7 +1723,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" ht="15" spans="1:31">
+    <row r="16" spans="1:31" ht="15">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +1760,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" ht="15" spans="1:31">
+    <row r="17" spans="1:31" ht="15">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2404,7 +1797,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" ht="15" spans="1:31">
+    <row r="18" spans="1:31" ht="15">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -2441,7 +1834,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" ht="15" spans="1:31">
+    <row r="19" spans="1:31" ht="15">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2478,7 +1871,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" ht="15" spans="1:31">
+    <row r="20" spans="1:31" ht="15">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +1908,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" ht="15" spans="1:31">
+    <row r="21" spans="1:31" ht="15">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -2552,7 +1945,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" ht="15" spans="1:31">
+    <row r="22" spans="1:31" ht="15">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +1982,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" ht="15" spans="1:31">
+    <row r="23" spans="1:31" ht="15">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2626,7 +2019,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" ht="15" spans="1:31">
+    <row r="24" spans="1:31" ht="15">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2663,7 +2056,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" ht="15" spans="1:31">
+    <row r="25" spans="1:31" ht="15">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2700,7 +2093,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" ht="15" spans="1:31">
+    <row r="26" spans="1:31" ht="15">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -2737,7 +2130,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" ht="15" spans="1:31">
+    <row r="27" spans="1:31" ht="15">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2774,7 +2167,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" ht="15" spans="1:31">
+    <row r="28" spans="1:31" ht="15">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2811,7 +2204,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" ht="15" spans="1:31">
+    <row r="29" spans="1:31" ht="15">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2848,7 +2241,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" ht="15" spans="1:31">
+    <row r="30" spans="1:31" ht="15">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2885,7 +2278,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" ht="15" spans="1:31">
+    <row r="31" spans="1:31" ht="15">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2922,7 +2315,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" ht="15" spans="1:31">
+    <row r="32" spans="1:31" ht="15">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2959,7 +2352,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" ht="15" spans="1:31">
+    <row r="33" spans="1:31" ht="15">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2996,7 +2389,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" ht="15" spans="1:31">
+    <row r="34" spans="1:31" ht="15">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -3033,7 +2426,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" ht="15" spans="1:31">
+    <row r="35" spans="1:31" ht="15">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -3070,7 +2463,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" ht="15" spans="1:31">
+    <row r="36" spans="1:31" ht="15">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -3107,7 +2500,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" ht="15" spans="1:31">
+    <row r="37" spans="1:31" ht="15">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -3144,7 +2537,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" ht="15" spans="1:31">
+    <row r="38" spans="1:31" ht="15">
       <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
@@ -3181,7 +2574,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" ht="15" spans="1:31">
+    <row r="39" spans="1:31" ht="15">
       <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
@@ -3218,7 +2611,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" ht="15" spans="1:31">
+    <row r="40" spans="1:31" ht="15">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -3255,7 +2648,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" ht="15" spans="1:31">
+    <row r="41" spans="1:31" ht="15">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +2685,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" ht="15" spans="1:31">
+    <row r="42" spans="1:31" ht="15">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -3329,7 +2722,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" ht="15" spans="1:31">
+    <row r="43" spans="1:31" ht="15">
       <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
@@ -3366,7 +2759,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" ht="15" spans="1:31">
+    <row r="44" spans="1:31" ht="15">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -3403,7 +2796,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" ht="15" spans="1:31">
+    <row r="45" spans="1:31" ht="15">
       <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
@@ -3440,7 +2833,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" ht="15" spans="1:31">
+    <row r="46" spans="1:31" ht="15">
       <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
@@ -3477,7 +2870,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" ht="15" spans="1:31">
+    <row r="47" spans="1:31" ht="15">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -3514,7 +2907,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" ht="15" spans="1:31">
+    <row r="48" spans="1:31" ht="15">
       <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
@@ -3551,7 +2944,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" ht="15" spans="1:31">
+    <row r="49" spans="1:31" ht="15">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -3588,7 +2981,7 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
-    <row r="50" ht="15" spans="1:31">
+    <row r="50" spans="1:31" ht="15">
       <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
@@ -3625,7 +3018,7 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
     </row>
-    <row r="51" ht="15" spans="1:31">
+    <row r="51" spans="1:31" ht="15">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -3662,7 +3055,7 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" ht="15" spans="1:31">
+    <row r="52" spans="1:31" ht="15">
       <c r="A52" s="2" t="s">
         <v>76</v>
       </c>
@@ -3699,7 +3092,7 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
     </row>
-    <row r="53" ht="15" spans="1:31">
+    <row r="53" spans="1:31" ht="15">
       <c r="A53" s="2" t="s">
         <v>77</v>
       </c>
@@ -3736,7 +3129,7 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" ht="15" spans="1:31">
+    <row r="54" spans="1:31" ht="15">
       <c r="A54" s="2" t="s">
         <v>78</v>
       </c>
@@ -3773,7 +3166,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" ht="15" spans="1:31">
+    <row r="55" spans="1:31" ht="15">
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
@@ -3810,7 +3203,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" ht="15" spans="1:31">
+    <row r="56" spans="1:31" ht="15">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -3847,7 +3240,7 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
-    <row r="57" ht="15" spans="1:31">
+    <row r="57" spans="1:31" ht="15">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
@@ -3884,7 +3277,7 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
-    <row r="58" ht="15" spans="1:31">
+    <row r="58" spans="1:31" ht="15">
       <c r="A58" s="2" t="s">
         <v>82</v>
       </c>
@@ -3921,7 +3314,7 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
     </row>
-    <row r="59" ht="15" spans="1:31">
+    <row r="59" spans="1:31" ht="15">
       <c r="A59" s="2" t="s">
         <v>83</v>
       </c>
@@ -3958,7 +3351,7 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
     </row>
-    <row r="60" ht="15" spans="1:31">
+    <row r="60" spans="1:31" ht="15">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
@@ -3995,7 +3388,7 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
     </row>
-    <row r="61" ht="15" spans="1:31">
+    <row r="61" spans="1:31" ht="15">
       <c r="A61" s="2" t="s">
         <v>85</v>
       </c>
@@ -4032,7 +3425,7 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
     </row>
-    <row r="62" ht="15" spans="1:31">
+    <row r="62" spans="1:31" ht="15">
       <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
@@ -4069,7 +3462,7 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
     </row>
-    <row r="63" ht="15" spans="1:31">
+    <row r="63" spans="1:31" ht="15">
       <c r="A63" s="2" t="s">
         <v>87</v>
       </c>
@@ -4106,7 +3499,7 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
     </row>
-    <row r="64" ht="15" spans="1:31">
+    <row r="64" spans="1:31" ht="15">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -4143,7 +3536,7 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" ht="15" spans="1:31">
+    <row r="65" spans="1:31" ht="15">
       <c r="A65" s="2" t="s">
         <v>89</v>
       </c>
@@ -4180,7 +3573,7 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
-    <row r="66" ht="15" spans="1:31">
+    <row r="66" spans="1:31" ht="15">
       <c r="A66" s="2" t="s">
         <v>90</v>
       </c>
@@ -4217,7 +3610,7 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
     </row>
-    <row r="67" ht="15" spans="1:31">
+    <row r="67" spans="1:31" ht="15">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -4254,7 +3647,7 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
-    <row r="68" ht="15" spans="1:31">
+    <row r="68" spans="1:31" ht="15">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -4291,7 +3684,7 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
-    <row r="69" ht="15" spans="1:31">
+    <row r="69" spans="1:31" ht="15">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -4328,7 +3721,7 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" ht="15" spans="1:31">
+    <row r="70" spans="1:31" ht="15">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -4365,7 +3758,7 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
     </row>
-    <row r="71" ht="15" spans="1:31">
+    <row r="71" spans="1:31" ht="15">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -4402,7 +3795,7 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
-    <row r="72" ht="15" spans="1:31">
+    <row r="72" spans="1:31" ht="15">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -4439,7 +3832,7 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
-    <row r="73" ht="15" spans="1:31">
+    <row r="73" spans="1:31" ht="15">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
@@ -4476,7 +3869,7 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
     </row>
-    <row r="74" ht="15" spans="1:31">
+    <row r="74" spans="1:31" ht="15">
       <c r="A74" s="2" t="s">
         <v>98</v>
       </c>
@@ -4513,7 +3906,7 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
     </row>
-    <row r="75" ht="15" spans="1:31">
+    <row r="75" spans="1:31" ht="15">
       <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
@@ -4550,7 +3943,7 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
     </row>
-    <row r="76" ht="15" spans="1:31">
+    <row r="76" spans="1:31" ht="15">
       <c r="A76" s="2" t="s">
         <v>100</v>
       </c>
@@ -4587,7 +3980,7 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
     </row>
-    <row r="77" ht="15" spans="1:31">
+    <row r="77" spans="1:31" ht="15">
       <c r="A77" s="2" t="s">
         <v>101</v>
       </c>
@@ -4624,7 +4017,7 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
     </row>
-    <row r="78" ht="15" spans="1:31">
+    <row r="78" spans="1:31" ht="15">
       <c r="A78" s="2" t="s">
         <v>102</v>
       </c>
@@ -4661,7 +4054,7 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
     </row>
-    <row r="79" ht="15" spans="1:31">
+    <row r="79" spans="1:31" ht="15">
       <c r="A79" s="2" t="s">
         <v>103</v>
       </c>
@@ -4698,7 +4091,7 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
     </row>
-    <row r="80" ht="15" spans="1:31">
+    <row r="80" spans="1:31" ht="15">
       <c r="A80" s="2" t="s">
         <v>104</v>
       </c>
@@ -4735,7 +4128,7 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
     </row>
-    <row r="81" ht="15" spans="1:31">
+    <row r="81" spans="1:31" ht="15">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -4772,7 +4165,7 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
     </row>
-    <row r="82" ht="15" spans="1:31">
+    <row r="82" spans="1:31" ht="15">
       <c r="A82" s="2" t="s">
         <v>106</v>
       </c>
@@ -4809,7 +4202,7 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
     </row>
-    <row r="83" ht="15" spans="1:31">
+    <row r="83" spans="1:31" ht="15">
       <c r="A83" s="2" t="s">
         <v>107</v>
       </c>
@@ -4846,7 +4239,7 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
     </row>
-    <row r="84" ht="15" spans="1:31">
+    <row r="84" spans="1:31" ht="15">
       <c r="A84" s="2" t="s">
         <v>108</v>
       </c>
@@ -4883,7 +4276,7 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
     </row>
-    <row r="85" ht="15" spans="1:31">
+    <row r="85" spans="1:31" ht="15">
       <c r="A85" s="2" t="s">
         <v>109</v>
       </c>
@@ -4920,7 +4313,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" ht="15" spans="1:31">
+    <row r="86" spans="1:31" ht="15">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
@@ -4957,7 +4350,7 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
     </row>
-    <row r="87" ht="15" spans="1:31">
+    <row r="87" spans="1:31" ht="15">
       <c r="A87" s="2" t="s">
         <v>111</v>
       </c>
@@ -4994,7 +4387,7 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
     </row>
-    <row r="88" ht="15" spans="1:31">
+    <row r="88" spans="1:31" ht="15">
       <c r="A88" s="2" t="s">
         <v>112</v>
       </c>
@@ -5031,7 +4424,7 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
     </row>
-    <row r="89" ht="15" spans="1:31">
+    <row r="89" spans="1:31" ht="15">
       <c r="A89" s="2" t="s">
         <v>113</v>
       </c>
@@ -5068,7 +4461,7 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
     </row>
-    <row r="90" ht="15" spans="1:31">
+    <row r="90" spans="1:31" ht="15">
       <c r="A90" s="2" t="s">
         <v>114</v>
       </c>
@@ -5105,7 +4498,7 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
     </row>
-    <row r="91" ht="15" spans="1:31">
+    <row r="91" spans="1:31" ht="15">
       <c r="A91" s="2" t="s">
         <v>115</v>
       </c>
@@ -5142,7 +4535,7 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
     </row>
-    <row r="92" ht="15" spans="1:31">
+    <row r="92" spans="1:31" ht="15">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -5179,7 +4572,7 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
     </row>
-    <row r="93" ht="15" spans="1:31">
+    <row r="93" spans="1:31" ht="15">
       <c r="A93" s="2" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +4609,7 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
     </row>
-    <row r="94" ht="15" spans="1:31">
+    <row r="94" spans="1:31" ht="15">
       <c r="A94" s="2" t="s">
         <v>118</v>
       </c>
@@ -5253,7 +4646,7 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
     </row>
-    <row r="95" ht="15" spans="1:31">
+    <row r="95" spans="1:31" ht="15">
       <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
@@ -5290,7 +4683,7 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
     </row>
-    <row r="96" ht="15" spans="1:31">
+    <row r="96" spans="1:31" ht="15">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -5327,7 +4720,7 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
     </row>
-    <row r="97" ht="15" spans="1:31">
+    <row r="97" spans="1:31" ht="15">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -5364,7 +4757,7 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
     </row>
-    <row r="98" ht="15" spans="1:31">
+    <row r="98" spans="1:31" ht="15">
       <c r="A98" s="2" t="s">
         <v>121</v>
       </c>
@@ -5401,7 +4794,7 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
     </row>
-    <row r="99" ht="15" spans="1:31">
+    <row r="99" spans="1:31" ht="15">
       <c r="A99" s="2" t="s">
         <v>122</v>
       </c>
@@ -5438,7 +4831,7 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
     </row>
-    <row r="100" ht="15" spans="1:31">
+    <row r="100" spans="1:31" ht="15">
       <c r="A100" s="2" t="s">
         <v>123</v>
       </c>
@@ -5475,7 +4868,7 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
     </row>
-    <row r="101" ht="15" spans="1:31">
+    <row r="101" spans="1:31" ht="15">
       <c r="A101" s="2" t="s">
         <v>124</v>
       </c>
@@ -5512,7 +4905,7 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
     </row>
-    <row r="102" ht="15" spans="1:31">
+    <row r="102" spans="1:31" ht="15">
       <c r="A102" s="2" t="s">
         <v>125</v>
       </c>
@@ -5549,7 +4942,7 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
     </row>
-    <row r="103" ht="15" spans="1:31">
+    <row r="103" spans="1:31" ht="15">
       <c r="A103" s="2" t="s">
         <v>126</v>
       </c>
@@ -5586,7 +4979,7 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
     </row>
-    <row r="104" ht="15" spans="1:31">
+    <row r="104" spans="1:31" ht="15">
       <c r="A104" s="2" t="s">
         <v>127</v>
       </c>
@@ -5623,7 +5016,7 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
     </row>
-    <row r="105" ht="15" spans="1:31">
+    <row r="105" spans="1:31" ht="15">
       <c r="A105" s="2" t="s">
         <v>128</v>
       </c>
@@ -5660,7 +5053,7 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
     </row>
-    <row r="106" ht="15" spans="1:31">
+    <row r="106" spans="1:31" ht="15">
       <c r="A106" s="2" t="s">
         <v>129</v>
       </c>
@@ -5697,7 +5090,7 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
     </row>
-    <row r="107" ht="15" spans="1:31">
+    <row r="107" spans="1:31" ht="15">
       <c r="A107" s="2" t="s">
         <v>130</v>
       </c>
@@ -5734,7 +5127,7 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
     </row>
-    <row r="108" ht="15" spans="1:31">
+    <row r="108" spans="1:31" ht="15">
       <c r="A108" s="2" t="s">
         <v>131</v>
       </c>
@@ -5771,7 +5164,7 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
     </row>
-    <row r="109" ht="15" spans="1:31">
+    <row r="109" spans="1:31" ht="15">
       <c r="A109" s="2" t="s">
         <v>132</v>
       </c>
@@ -5808,7 +5201,7 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
     </row>
-    <row r="110" ht="15" spans="1:31">
+    <row r="110" spans="1:31" ht="15">
       <c r="A110" s="2" t="s">
         <v>133</v>
       </c>
@@ -5845,7 +5238,7 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
     </row>
-    <row r="111" ht="15" spans="1:31">
+    <row r="111" spans="1:31" ht="15">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -5882,7 +5275,7 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
     </row>
-    <row r="112" ht="15" spans="1:31">
+    <row r="112" spans="1:31" ht="15">
       <c r="A112" s="2" t="s">
         <v>135</v>
       </c>
@@ -5919,7 +5312,7 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
     </row>
-    <row r="113" ht="15" spans="1:31">
+    <row r="113" spans="1:31" ht="15">
       <c r="A113" s="2" t="s">
         <v>136</v>
       </c>
@@ -5956,7 +5349,7 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
     </row>
-    <row r="114" ht="15" spans="1:31">
+    <row r="114" spans="1:31" ht="15">
       <c r="A114" s="2" t="s">
         <v>137</v>
       </c>
@@ -5993,7 +5386,7 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
     </row>
-    <row r="115" ht="15" spans="1:31">
+    <row r="115" spans="1:31" ht="15">
       <c r="A115" s="2" t="s">
         <v>138</v>
       </c>
@@ -6030,7 +5423,7 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
     </row>
-    <row r="116" ht="15" spans="1:31">
+    <row r="116" spans="1:31" ht="15">
       <c r="A116" s="2" t="s">
         <v>139</v>
       </c>
@@ -6067,7 +5460,7 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
     </row>
-    <row r="117" ht="15" spans="1:31">
+    <row r="117" spans="1:31" ht="15">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -6104,7 +5497,7 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
     </row>
-    <row r="118" ht="15" spans="1:31">
+    <row r="118" spans="1:31" ht="15">
       <c r="A118" s="2" t="s">
         <v>141</v>
       </c>
@@ -6141,7 +5534,7 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
     </row>
-    <row r="119" ht="15" spans="1:31">
+    <row r="119" spans="1:31" ht="15">
       <c r="A119" s="2" t="s">
         <v>142</v>
       </c>
@@ -6178,7 +5571,7 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
     </row>
-    <row r="120" ht="15" spans="1:31">
+    <row r="120" spans="1:31" ht="15">
       <c r="A120" s="2" t="s">
         <v>143</v>
       </c>
@@ -6215,7 +5608,7 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
     </row>
-    <row r="121" ht="15" spans="1:31">
+    <row r="121" spans="1:31" ht="15">
       <c r="A121" s="2" t="s">
         <v>144</v>
       </c>
@@ -6252,7 +5645,7 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
     </row>
-    <row r="122" ht="15" spans="1:31">
+    <row r="122" spans="1:31" ht="15">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -6289,7 +5682,7 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
     </row>
-    <row r="123" ht="15" spans="1:31">
+    <row r="123" spans="1:31" ht="15">
       <c r="A123" s="2" t="s">
         <v>146</v>
       </c>
@@ -6326,7 +5719,7 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
     </row>
-    <row r="124" ht="15" spans="1:31">
+    <row r="124" spans="1:31" ht="15">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -6363,7 +5756,7 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
     </row>
-    <row r="125" ht="15" spans="1:31">
+    <row r="125" spans="1:31" ht="15">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -6400,7 +5793,7 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
     </row>
-    <row r="126" ht="15" spans="1:31">
+    <row r="126" spans="1:31" ht="15">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -6437,7 +5830,7 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
     </row>
-    <row r="127" ht="15" spans="1:31">
+    <row r="127" spans="1:31" ht="15">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
@@ -6474,7 +5867,7 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
     </row>
-    <row r="128" ht="15" spans="1:31">
+    <row r="128" spans="1:31" ht="15">
       <c r="A128" s="2" t="s">
         <v>34</v>
       </c>
@@ -6511,7 +5904,7 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
     </row>
-    <row r="129" ht="15" spans="1:31">
+    <row r="129" spans="1:31" ht="15">
       <c r="A129" s="2" t="s">
         <v>150</v>
       </c>
@@ -6548,7 +5941,7 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
     </row>
-    <row r="130" ht="15" spans="1:31">
+    <row r="130" spans="1:31" ht="15">
       <c r="A130" s="2" t="s">
         <v>151</v>
       </c>
@@ -6585,7 +5978,7 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
     </row>
-    <row r="131" ht="15" spans="1:31">
+    <row r="131" spans="1:31" ht="15">
       <c r="A131" s="2" t="s">
         <v>145</v>
       </c>
@@ -6622,7 +6015,7 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
     </row>
-    <row r="132" ht="15" spans="1:31">
+    <row r="132" spans="1:31" ht="15">
       <c r="A132" s="2" t="s">
         <v>152</v>
       </c>
@@ -6659,7 +6052,7 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
     </row>
-    <row r="133" ht="15" spans="1:31">
+    <row r="133" spans="1:31" ht="15">
       <c r="A133" s="2" t="s">
         <v>153</v>
       </c>
@@ -6696,7 +6089,7 @@
       <c r="AD133" s="2"/>
       <c r="AE133" s="2"/>
     </row>
-    <row r="134" ht="15" spans="1:31">
+    <row r="134" spans="1:31" ht="15">
       <c r="A134" s="2" t="s">
         <v>39</v>
       </c>
@@ -6733,7 +6126,7 @@
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
     </row>
-    <row r="135" ht="15" spans="1:31">
+    <row r="135" spans="1:31" ht="15">
       <c r="A135" s="2" t="s">
         <v>36</v>
       </c>
@@ -6770,7 +6163,7 @@
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
     </row>
-    <row r="136" ht="15" spans="1:31">
+    <row r="136" spans="1:31" ht="15">
       <c r="A136" s="3" t="s">
         <v>154</v>
       </c>
@@ -6807,7 +6200,7 @@
       <c r="AD136" s="2"/>
       <c r="AE136" s="2"/>
     </row>
-    <row r="137" ht="15" spans="1:31">
+    <row r="137" spans="1:31" ht="15">
       <c r="A137" s="3" t="s">
         <v>40</v>
       </c>
@@ -6844,7 +6237,7 @@
       <c r="AD137" s="2"/>
       <c r="AE137" s="2"/>
     </row>
-    <row r="138" ht="15" spans="1:31">
+    <row r="138" spans="1:31" ht="15">
       <c r="A138" s="3" t="s">
         <v>155</v>
       </c>
@@ -6881,7 +6274,7 @@
       <c r="AD138" s="2"/>
       <c r="AE138" s="2"/>
     </row>
-    <row r="139" ht="15" spans="1:31">
+    <row r="139" spans="1:31" ht="15">
       <c r="A139" s="3" t="s">
         <v>156</v>
       </c>
@@ -6918,7 +6311,7 @@
       <c r="AD139" s="2"/>
       <c r="AE139" s="2"/>
     </row>
-    <row r="140" ht="15" spans="1:31">
+    <row r="140" spans="1:31" ht="15">
       <c r="A140" s="3" t="s">
         <v>157</v>
       </c>
@@ -6955,7 +6348,7 @@
       <c r="AD140" s="2"/>
       <c r="AE140" s="2"/>
     </row>
-    <row r="141" ht="15" spans="1:31">
+    <row r="141" spans="1:31" ht="15">
       <c r="A141" s="2" t="s">
         <v>158</v>
       </c>
@@ -6992,7 +6385,7 @@
       <c r="AD141" s="2"/>
       <c r="AE141" s="2"/>
     </row>
-    <row r="142" ht="15" spans="1:31">
+    <row r="142" spans="1:31" ht="15">
       <c r="A142" s="2" t="s">
         <v>159</v>
       </c>
@@ -7029,7 +6422,7 @@
       <c r="AD142" s="2"/>
       <c r="AE142" s="2"/>
     </row>
-    <row r="143" ht="15" spans="1:31">
+    <row r="143" spans="1:31" ht="15">
       <c r="A143" s="2" t="s">
         <v>160</v>
       </c>
@@ -7066,7 +6459,7 @@
       <c r="AD143" s="2"/>
       <c r="AE143" s="2"/>
     </row>
-    <row r="144" ht="15" spans="1:31">
+    <row r="144" spans="1:31" ht="15">
       <c r="A144" s="2" t="s">
         <v>161</v>
       </c>
@@ -7103,7 +6496,7 @@
       <c r="AD144" s="2"/>
       <c r="AE144" s="2"/>
     </row>
-    <row r="145" ht="15" spans="1:31">
+    <row r="145" spans="1:31" ht="15">
       <c r="A145" s="2" t="s">
         <v>162</v>
       </c>
@@ -7140,7 +6533,7 @@
       <c r="AD145" s="2"/>
       <c r="AE145" s="2"/>
     </row>
-    <row r="146" ht="15" spans="1:31">
+    <row r="146" spans="1:31" ht="15">
       <c r="A146" s="2" t="s">
         <v>163</v>
       </c>
@@ -7177,7 +6570,7 @@
       <c r="AD146" s="2"/>
       <c r="AE146" s="2"/>
     </row>
-    <row r="147" ht="15" spans="1:31">
+    <row r="147" spans="1:31" ht="15">
       <c r="A147" s="2" t="s">
         <v>164</v>
       </c>
@@ -7214,7 +6607,7 @@
       <c r="AD147" s="2"/>
       <c r="AE147" s="2"/>
     </row>
-    <row r="148" ht="15" spans="1:31">
+    <row r="148" spans="1:31" ht="15">
       <c r="A148" s="2" t="s">
         <v>165</v>
       </c>
@@ -7251,7 +6644,7 @@
       <c r="AD148" s="2"/>
       <c r="AE148" s="2"/>
     </row>
-    <row r="149" ht="15" spans="1:31">
+    <row r="149" spans="1:31" ht="15">
       <c r="A149" s="2" t="s">
         <v>158</v>
       </c>
@@ -7288,7 +6681,7 @@
       <c r="AD149" s="2"/>
       <c r="AE149" s="2"/>
     </row>
-    <row r="150" ht="15" spans="1:31">
+    <row r="150" spans="1:31" ht="15">
       <c r="A150" s="2" t="s">
         <v>59</v>
       </c>
@@ -7325,7 +6718,7 @@
       <c r="AD150" s="2"/>
       <c r="AE150" s="2"/>
     </row>
-    <row r="151" ht="15" spans="1:31">
+    <row r="151" spans="1:31" ht="15">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -7362,7 +6755,7 @@
       <c r="AD151" s="2"/>
       <c r="AE151" s="2"/>
     </row>
-    <row r="152" ht="15" spans="1:31">
+    <row r="152" spans="1:31" ht="15">
       <c r="A152" s="2" t="s">
         <v>36</v>
       </c>
@@ -7399,7 +6792,7 @@
       <c r="AD152" s="2"/>
       <c r="AE152" s="2"/>
     </row>
-    <row r="153" ht="15" spans="1:31">
+    <row r="153" spans="1:31" ht="15">
       <c r="A153" s="2" t="s">
         <v>166</v>
       </c>
@@ -7436,7 +6829,7 @@
       <c r="AD153" s="2"/>
       <c r="AE153" s="2"/>
     </row>
-    <row r="154" ht="15" spans="1:31">
+    <row r="154" spans="1:31" ht="15">
       <c r="A154" s="2" t="s">
         <v>167</v>
       </c>
@@ -7473,7 +6866,7 @@
       <c r="AD154" s="2"/>
       <c r="AE154" s="2"/>
     </row>
-    <row r="155" ht="15" spans="1:31">
+    <row r="155" spans="1:31" ht="15">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -7510,7 +6903,7 @@
       <c r="AD155" s="2"/>
       <c r="AE155" s="2"/>
     </row>
-    <row r="156" ht="15" spans="1:31">
+    <row r="156" spans="1:31" ht="15">
       <c r="A156" s="2" t="s">
         <v>169</v>
       </c>
@@ -7547,7 +6940,7 @@
       <c r="AD156" s="2"/>
       <c r="AE156" s="2"/>
     </row>
-    <row r="157" ht="15" spans="1:31">
+    <row r="157" spans="1:31" ht="15">
       <c r="A157" s="2" t="s">
         <v>170</v>
       </c>
@@ -7584,7 +6977,7 @@
       <c r="AD157" s="2"/>
       <c r="AE157" s="2"/>
     </row>
-    <row r="158" ht="15" spans="1:31">
+    <row r="158" spans="1:31" ht="15">
       <c r="A158" s="2" t="s">
         <v>171</v>
       </c>
@@ -7621,7 +7014,7 @@
       <c r="AD158" s="2"/>
       <c r="AE158" s="2"/>
     </row>
-    <row r="159" ht="15" spans="1:31">
+    <row r="159" spans="1:31" ht="15">
       <c r="A159" s="2" t="s">
         <v>172</v>
       </c>
@@ -7658,7 +7051,7 @@
       <c r="AD159" s="2"/>
       <c r="AE159" s="2"/>
     </row>
-    <row r="160" ht="15" spans="1:31">
+    <row r="160" spans="1:31" ht="15">
       <c r="A160" s="2" t="s">
         <v>173</v>
       </c>
@@ -7695,7 +7088,7 @@
       <c r="AD160" s="2"/>
       <c r="AE160" s="2"/>
     </row>
-    <row r="161" ht="15" spans="1:31">
+    <row r="161" spans="1:31" ht="15">
       <c r="A161" s="2" t="s">
         <v>174</v>
       </c>
@@ -7732,7 +7125,7 @@
       <c r="AD161" s="2"/>
       <c r="AE161" s="2"/>
     </row>
-    <row r="162" ht="15" spans="1:31">
+    <row r="162" spans="1:31" ht="15">
       <c r="A162" s="2" t="s">
         <v>175</v>
       </c>
@@ -7769,7 +7162,7 @@
       <c r="AD162" s="2"/>
       <c r="AE162" s="2"/>
     </row>
-    <row r="163" ht="15" spans="1:31">
+    <row r="163" spans="1:31" ht="15">
       <c r="A163" s="2" t="s">
         <v>176</v>
       </c>
@@ -7806,7 +7199,7 @@
       <c r="AD163" s="2"/>
       <c r="AE163" s="2"/>
     </row>
-    <row r="164" ht="15" spans="1:31">
+    <row r="164" spans="1:31" ht="15">
       <c r="A164" s="2" t="s">
         <v>177</v>
       </c>
@@ -7843,7 +7236,7 @@
       <c r="AD164" s="2"/>
       <c r="AE164" s="2"/>
     </row>
-    <row r="165" ht="15" spans="1:31">
+    <row r="165" spans="1:31" ht="15">
       <c r="A165" s="2" t="s">
         <v>178</v>
       </c>
@@ -7880,7 +7273,7 @@
       <c r="AD165" s="2"/>
       <c r="AE165" s="2"/>
     </row>
-    <row r="166" ht="15" spans="1:31">
+    <row r="166" spans="1:31" ht="15">
       <c r="A166" s="2" t="s">
         <v>179</v>
       </c>
@@ -7917,7 +7310,7 @@
       <c r="AD166" s="2"/>
       <c r="AE166" s="2"/>
     </row>
-    <row r="167" ht="15" spans="1:31">
+    <row r="167" spans="1:31" ht="15">
       <c r="A167" s="2" t="s">
         <v>180</v>
       </c>
@@ -7954,7 +7347,7 @@
       <c r="AD167" s="2"/>
       <c r="AE167" s="2"/>
     </row>
-    <row r="168" ht="15" spans="1:31">
+    <row r="168" spans="1:31" ht="15">
       <c r="A168" s="2" t="s">
         <v>181</v>
       </c>
@@ -7991,7 +7384,7 @@
       <c r="AD168" s="2"/>
       <c r="AE168" s="2"/>
     </row>
-    <row r="169" ht="15" spans="1:31">
+    <row r="169" spans="1:31" ht="15">
       <c r="A169" s="2" t="s">
         <v>182</v>
       </c>
@@ -8028,7 +7421,7 @@
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
     </row>
-    <row r="170" ht="15" spans="1:31">
+    <row r="170" spans="1:31" ht="15">
       <c r="A170" s="2" t="s">
         <v>178</v>
       </c>
@@ -8065,7 +7458,7 @@
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
     </row>
-    <row r="171" ht="15" spans="1:31">
+    <row r="171" spans="1:31" ht="15">
       <c r="A171" s="2" t="s">
         <v>183</v>
       </c>
@@ -8102,7 +7495,7 @@
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
     </row>
-    <row r="172" ht="15" spans="1:31">
+    <row r="172" spans="1:31" ht="15">
       <c r="A172" s="2" t="s">
         <v>184</v>
       </c>
@@ -8139,7 +7532,7 @@
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
     </row>
-    <row r="173" ht="15" spans="1:31">
+    <row r="173" spans="1:31" ht="15">
       <c r="A173" s="2" t="s">
         <v>185</v>
       </c>
@@ -8176,7 +7569,7 @@
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
     </row>
-    <row r="174" ht="15" spans="1:31">
+    <row r="174" spans="1:31" ht="15">
       <c r="A174" s="2" t="s">
         <v>186</v>
       </c>
@@ -8213,7 +7606,7 @@
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
     </row>
-    <row r="175" ht="15" spans="1:31">
+    <row r="175" spans="1:31" ht="15">
       <c r="A175" s="2" t="s">
         <v>187</v>
       </c>
@@ -8250,7 +7643,7 @@
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" ht="15" spans="1:31">
+    <row r="176" spans="1:31" ht="15">
       <c r="A176" s="2" t="s">
         <v>188</v>
       </c>
@@ -8287,7 +7680,7 @@
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" ht="15" spans="1:31">
+    <row r="177" spans="1:31" ht="15">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -8324,7 +7717,7 @@
       <c r="AD177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" ht="15" spans="1:31">
+    <row r="178" spans="1:31" ht="15">
       <c r="A178" s="2" t="s">
         <v>190</v>
       </c>
@@ -8361,7 +7754,7 @@
       <c r="AD178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" ht="15" spans="1:31">
+    <row r="179" spans="1:31" ht="15">
       <c r="A179" s="2" t="s">
         <v>191</v>
       </c>
@@ -8398,7 +7791,7 @@
       <c r="AD179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" ht="15" spans="1:31">
+    <row r="180" spans="1:31" ht="15">
       <c r="A180" s="2" t="s">
         <v>192</v>
       </c>
@@ -8435,7 +7828,7 @@
       <c r="AD180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" ht="15" spans="1:31">
+    <row r="181" spans="1:31" ht="15">
       <c r="A181" s="2" t="s">
         <v>193</v>
       </c>
@@ -8472,7 +7865,7 @@
       <c r="AD181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" ht="15" spans="1:31">
+    <row r="182" spans="1:31" ht="15">
       <c r="A182" s="2" t="s">
         <v>194</v>
       </c>
@@ -8509,7 +7902,7 @@
       <c r="AD182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" ht="15" spans="1:31">
+    <row r="183" spans="1:31" ht="15">
       <c r="A183" s="2" t="s">
         <v>195</v>
       </c>
@@ -8546,7 +7939,7 @@
       <c r="AD183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" ht="15" spans="1:31">
+    <row r="184" spans="1:31" ht="15">
       <c r="A184" s="2" t="s">
         <v>196</v>
       </c>
@@ -8583,7 +7976,7 @@
       <c r="AD184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" ht="15" spans="1:31">
+    <row r="185" spans="1:31" ht="15">
       <c r="A185" s="2" t="s">
         <v>197</v>
       </c>
@@ -8620,7 +8013,7 @@
       <c r="AD185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" ht="15" spans="1:31">
+    <row r="186" spans="1:31" ht="15">
       <c r="A186" s="2" t="s">
         <v>198</v>
       </c>
@@ -8657,7 +8050,7 @@
       <c r="AD186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" ht="15" spans="1:31">
+    <row r="187" spans="1:31" ht="15">
       <c r="A187" s="2" t="s">
         <v>199</v>
       </c>
@@ -8694,7 +8087,7 @@
       <c r="AD187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" ht="15" spans="1:31">
+    <row r="188" spans="1:31" ht="15">
       <c r="A188" s="2" t="s">
         <v>200</v>
       </c>
@@ -8731,7 +8124,7 @@
       <c r="AD188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" ht="15" spans="1:31">
+    <row r="189" spans="1:31" ht="15">
       <c r="A189" s="2" t="s">
         <v>201</v>
       </c>
@@ -8768,7 +8161,7 @@
       <c r="AD189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" ht="15" spans="1:31">
+    <row r="190" spans="1:31" ht="15">
       <c r="A190" s="2" t="s">
         <v>202</v>
       </c>
@@ -8805,7 +8198,7 @@
       <c r="AD190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" ht="15" spans="1:31">
+    <row r="191" spans="1:31" ht="15">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -8842,7 +8235,7 @@
       <c r="AD191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" ht="15" spans="1:31">
+    <row r="192" spans="1:31" ht="15">
       <c r="A192" s="2" t="s">
         <v>204</v>
       </c>
@@ -8879,7 +8272,7 @@
       <c r="AD192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" ht="15" spans="1:31">
+    <row r="193" spans="1:31" ht="15">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -8916,7 +8309,7 @@
       <c r="AD193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" ht="15" spans="1:31">
+    <row r="194" spans="1:31" ht="15">
       <c r="A194" s="2" t="s">
         <v>206</v>
       </c>
@@ -8953,7 +8346,7 @@
       <c r="AD194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" ht="15" spans="1:31">
+    <row r="195" spans="1:31" ht="15">
       <c r="A195" s="2" t="s">
         <v>207</v>
       </c>
@@ -8990,7 +8383,7 @@
       <c r="AD195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" ht="15" spans="1:31">
+    <row r="196" spans="1:31" ht="15">
       <c r="A196" s="2" t="s">
         <v>208</v>
       </c>
@@ -9027,7 +8420,7 @@
       <c r="AD196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" ht="15" spans="1:31">
+    <row r="197" spans="1:31" ht="15">
       <c r="A197" s="2" t="s">
         <v>209</v>
       </c>
@@ -9064,7 +8457,7 @@
       <c r="AD197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" ht="15" spans="1:31">
+    <row r="198" spans="1:31" ht="15">
       <c r="A198" s="2" t="s">
         <v>173</v>
       </c>
@@ -9101,7 +8494,7 @@
       <c r="AD198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" ht="15" spans="1:31">
+    <row r="199" spans="1:31" ht="15">
       <c r="A199" s="2" t="s">
         <v>210</v>
       </c>
@@ -9138,7 +8531,7 @@
       <c r="AD199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" ht="15" spans="1:31">
+    <row r="200" spans="1:31" ht="15">
       <c r="A200" s="2" t="s">
         <v>174</v>
       </c>
@@ -9175,7 +8568,7 @@
       <c r="AD200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" ht="15" spans="1:31">
+    <row r="201" spans="1:31" ht="15">
       <c r="A201" s="2" t="s">
         <v>211</v>
       </c>
@@ -9212,7 +8605,7 @@
       <c r="AD201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" ht="15" spans="1:31">
+    <row r="202" spans="1:31" ht="15">
       <c r="A202" s="2" t="s">
         <v>212</v>
       </c>
@@ -9249,7 +8642,7 @@
       <c r="AD202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" ht="15" spans="1:31">
+    <row r="203" spans="1:31" ht="15">
       <c r="A203" s="2" t="s">
         <v>213</v>
       </c>
@@ -9286,7 +8679,7 @@
       <c r="AD203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" ht="15" spans="1:31">
+    <row r="204" spans="1:31" ht="15">
       <c r="A204" s="2" t="s">
         <v>214</v>
       </c>
@@ -9323,7 +8716,7 @@
       <c r="AD204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" ht="15" spans="1:31">
+    <row r="205" spans="1:31" ht="15">
       <c r="A205" s="2" t="s">
         <v>215</v>
       </c>
@@ -9360,7 +8753,7 @@
       </c>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" ht="15" spans="1:31">
+    <row r="206" spans="1:31" ht="15">
       <c r="A206" s="2" t="s">
         <v>216</v>
       </c>
@@ -9397,7 +8790,7 @@
       </c>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" ht="15" spans="1:31">
+    <row r="207" spans="1:31" ht="15">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -9434,7 +8827,7 @@
       </c>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" ht="15" spans="1:31">
+    <row r="208" spans="1:31" ht="15">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -9471,7 +8864,7 @@
       </c>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" ht="15" spans="1:31">
+    <row r="209" spans="1:31" ht="15">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -9508,7 +8901,7 @@
       </c>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" ht="15" spans="1:31">
+    <row r="210" spans="1:31" ht="15">
       <c r="A210" s="2" t="s">
         <v>220</v>
       </c>
@@ -9545,7 +8938,7 @@
       </c>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" ht="15" spans="1:31">
+    <row r="211" spans="1:31" ht="15">
       <c r="A211" s="2" t="s">
         <v>221</v>
       </c>
@@ -9582,7 +8975,7 @@
       </c>
       <c r="AE211" s="2"/>
     </row>
-    <row r="212" ht="15" spans="1:31">
+    <row r="212" spans="1:31" ht="15">
       <c r="A212" s="2" t="s">
         <v>173</v>
       </c>
@@ -9619,7 +9012,7 @@
       <c r="AD212" s="2"/>
       <c r="AE212" s="2"/>
     </row>
-    <row r="213" ht="15" spans="1:31">
+    <row r="213" spans="1:31" ht="15">
       <c r="A213" s="2" t="s">
         <v>222</v>
       </c>
@@ -9656,7 +9049,7 @@
       <c r="AD213" s="2"/>
       <c r="AE213" s="2"/>
     </row>
-    <row r="214" ht="15" spans="1:31">
+    <row r="214" spans="1:31" ht="15">
       <c r="A214" s="2" t="s">
         <v>223</v>
       </c>
@@ -9693,7 +9086,7 @@
       <c r="AD214" s="2"/>
       <c r="AE214" s="2"/>
     </row>
-    <row r="215" ht="15" spans="1:31">
+    <row r="215" spans="1:31" ht="15">
       <c r="A215" s="2" t="s">
         <v>224</v>
       </c>
@@ -9730,7 +9123,7 @@
       <c r="AD215" s="2"/>
       <c r="AE215" s="2"/>
     </row>
-    <row r="216" ht="15" spans="1:31">
+    <row r="216" spans="1:31" ht="15">
       <c r="A216" s="2" t="s">
         <v>225</v>
       </c>
@@ -9767,7 +9160,7 @@
       <c r="AD216" s="2"/>
       <c r="AE216" s="2"/>
     </row>
-    <row r="217" ht="15" spans="1:31">
+    <row r="217" spans="1:31" ht="15">
       <c r="A217" s="2" t="s">
         <v>174</v>
       </c>
@@ -9804,7 +9197,7 @@
       <c r="AD217" s="2"/>
       <c r="AE217" s="2"/>
     </row>
-    <row r="218" ht="15" spans="1:31">
+    <row r="218" spans="1:31" ht="15">
       <c r="A218" s="2" t="s">
         <v>173</v>
       </c>
@@ -9841,7 +9234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" ht="15" spans="1:31">
+    <row r="219" spans="1:31" ht="15">
       <c r="A219" s="2" t="s">
         <v>224</v>
       </c>
@@ -9878,7 +9271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" ht="15" spans="1:31">
+    <row r="220" spans="1:31" ht="15">
       <c r="A220" s="2" t="s">
         <v>226</v>
       </c>
@@ -9915,7 +9308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" ht="15" spans="1:31">
+    <row r="221" spans="1:31" ht="15">
       <c r="A221" s="2" t="s">
         <v>227</v>
       </c>
@@ -9953,42 +9346,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/words/v1/动词词库.xlsx
+++ b/data/words/v1/动词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2D21B-3456-054F-85BE-056A43D03161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B51ED0D-0C5A-D942-B0DB-38B6B0AF00CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="动词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
